--- a/SEROFOI/summary_models/NGA-002-01_dat0.xlsx
+++ b/SEROFOI/summary_models/NGA-002-01_dat0.xlsx
@@ -1,94 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B99B3C-F4F1-4D70-AF28-CF032A461771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elpd_loo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foi_rhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">converged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seroreversion_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seroreversion_rate_rhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant_no_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-66.2(se=22.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011(95% CI, 0.0096-0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_no_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-55.3(se=16.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_no_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-65.9(se=21.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.7(se=3.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3(95% CI, 0.71-2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+  <si>
+    <t>elpd_loo</t>
+  </si>
+  <si>
+    <t>foi</t>
+  </si>
+  <si>
+    <t>foi_rhat</t>
+  </si>
+  <si>
+    <t>converged</t>
+  </si>
+  <si>
+    <t>seroreversion_rate_rhat</t>
+  </si>
+  <si>
+    <t>-66.2(se=22.6)</t>
+  </si>
+  <si>
+    <t>0.011(95% CI, 0.0096-0.013)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>-55.3(se=16.4)</t>
+  </si>
+  <si>
+    <t>-65.9(se=21.3)</t>
+  </si>
+  <si>
+    <t>-24.7(se=3.6)</t>
+  </si>
+  <si>
+    <t>1.3(95% CI, 0.71-2)</t>
+  </si>
+  <si>
+    <t>Nombre del modelo</t>
+  </si>
+  <si>
+    <t>Constante sin seroreversion</t>
+  </si>
+  <si>
+    <t>Tiempo sin seroreversion</t>
+  </si>
+  <si>
+    <t>Edad sin serorevesion</t>
+  </si>
+  <si>
+    <t>Edad con seroreversion</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Fuerza de infección</t>
+  </si>
+  <si>
+    <t>FOI_Rhat</t>
+  </si>
+  <si>
+    <t>Convergencia</t>
+  </si>
+  <si>
+    <t>Tasa de serorreversion</t>
+  </si>
+  <si>
+    <t>Tasa de serorreversión Rhat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,17 +126,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,121 +444,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>